--- a/my_test_temp/测试包含表格和列表数据的复杂导出.xlsx
+++ b/my_test_temp/测试包含表格和列表数据的复杂导出.xlsx
@@ -17,8 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="10">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="169">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -89,8 +92,1025 @@
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="0"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:color theme="0"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:color theme="0"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:color theme="0"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:color theme="0"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:color theme="0"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:color theme="0"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:color theme="0"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="9"/>
+      <main:color theme="0"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +1123,14 @@
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor theme="0" tint="-0.349986266670736"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -157,21 +1183,730 @@
       </main:bottom>
       <main:diagonal/>
     </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left style="thin">
+        <main:color auto="1"/>
+      </main:left>
+      <main:right/>
+      <main:top style="thin">
+        <main:color auto="1"/>
+      </main:top>
+      <main:bottom style="thin">
+        <main:color auto="1"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left/>
+      <main:right/>
+      <main:top style="thin">
+        <main:color auto="1"/>
+      </main:top>
+      <main:bottom style="thin">
+        <main:color auto="1"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left/>
+      <main:right style="medium">
+        <main:color auto="1"/>
+      </main:right>
+      <main:top style="thin">
+        <main:color auto="1"/>
+      </main:top>
+      <main:bottom style="thin">
+        <main:color auto="1"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left style="thin">
+        <main:color auto="1"/>
+      </main:left>
+      <main:right/>
+      <main:top style="thin">
+        <main:color auto="1"/>
+      </main:top>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left/>
+      <main:right/>
+      <main:top style="thin">
+        <main:color auto="1"/>
+      </main:top>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left/>
+      <main:right style="medium">
+        <main:color auto="1"/>
+      </main:right>
+      <main:top style="thin">
+        <main:color auto="1"/>
+      </main:top>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left style="medium">
+        <main:color auto="1"/>
+      </main:left>
+      <main:right/>
+      <main:top style="thin">
+        <main:color auto="1"/>
+      </main:top>
+      <main:bottom style="thin">
+        <main:color auto="1"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left/>
+      <main:right style="thin">
+        <main:color auto="1"/>
+      </main:right>
+      <main:top style="thin">
+        <main:color auto="1"/>
+      </main:top>
+      <main:bottom style="thin">
+        <main:color auto="1"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left style="medium">
+        <main:color auto="1"/>
+      </main:left>
+      <main:right/>
+      <main:top style="thin">
+        <main:color auto="1"/>
+      </main:top>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left/>
+      <main:right style="thin">
+        <main:color auto="1"/>
+      </main:right>
+      <main:top style="thin">
+        <main:color auto="1"/>
+      </main:top>
+      <main:bottom/>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left style="medium">
+        <main:color auto="1"/>
+      </main:left>
+      <main:right/>
+      <main:top/>
+      <main:bottom style="medium">
+        <main:color auto="1"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left/>
+      <main:right/>
+      <main:top/>
+      <main:bottom style="medium">
+        <main:color auto="1"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left/>
+      <main:right style="thin">
+        <main:color auto="1"/>
+      </main:right>
+      <main:top/>
+      <main:bottom style="medium">
+        <main:color auto="1"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left style="thin">
+        <main:color auto="1"/>
+      </main:left>
+      <main:right/>
+      <main:top/>
+      <main:bottom style="medium">
+        <main:color auto="1"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
+    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:left/>
+      <main:right style="medium">
+        <main:color auto="1"/>
+      </main:right>
+      <main:top/>
+      <main:bottom style="medium">
+        <main:color auto="1"/>
+      </main:bottom>
+      <main:diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="169">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="35" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="36" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="37" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="38" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="40" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="41" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="42" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="43" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="44" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="45" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="46" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="47" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="48" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="53" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="55" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="56" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="58" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="59" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="60" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="61" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="62" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="63" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="64" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="65" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="66" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="67" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="68" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="69" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="70" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="71" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="72" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="73" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="74" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="75" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="76" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="77" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="78" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="79" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="80" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="81" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="82" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="83" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="84" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="85" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="86" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="87" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="88" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="89" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="90" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="91" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="92" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="93" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="94" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="95" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="96" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="97" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="98" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="99" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="100" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="101" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="102" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="103" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="104" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="105" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="106" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="107" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="108" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="109" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="110" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="111" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="112" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="113" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="114" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="115" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="116" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="117" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="118" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="119" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="120" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="121" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="122" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="123" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="124" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="125" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="126" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="127" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="128" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="129" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="130" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="131" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="132" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="133" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="134" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="135" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="136" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="137" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="138" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="139" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="140" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="141" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="142" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="143" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="144" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="145" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="146" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="147" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="148" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="149" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="150" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="151" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="152" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="153" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="154" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="155" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="156" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="157" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="158" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="159" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="160" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="161" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="162" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="163" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="164" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="165" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="166" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="167" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="168" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -193,12 +1928,12 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" ht="30.0">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>订单信息</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -208,44 +1943,989 @@
           <t/>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="2" customHeight="true" ht="15.0">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>客户:</t>
         </is>
       </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>ddddcccc</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E2" s="13" t="inlineStr">
+        <is>
+          <t>订单名称:</t>
+        </is>
+      </c>
+      <c r="F2" s="14" t="inlineStr">
+        <is>
+          <t>进口海鲜</t>
+        </is>
+      </c>
+      <c r="G2" s="15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H2" s="16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
+    <row r="3" customHeight="true" ht="30.0">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>联系人:</t>
+        </is>
+      </c>
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C3" s="19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D3" s="20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E3" s="21" t="inlineStr">
+        <is>
+          <t>订单日期:</t>
+        </is>
+      </c>
+      <c r="F3" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G3" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H3" s="24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="4" customHeight="true" ht="20.1">
+      <c r="A4" s="25" t="inlineStr">
+        <is>
+          <t>联系人电话:</t>
+        </is>
+      </c>
+      <c r="B4" s="26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C4" s="27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E4" s="29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F4" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G4" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H4" s="32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="5" customHeight="true" ht="20.1">
+      <c r="A5" s="33" t="inlineStr">
+        <is>
+          <t>收货地址</t>
+        </is>
+      </c>
+      <c r="B5" s="34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C5" s="35" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D5" s="36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E5" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F5" s="38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G5" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H5" s="40" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="6" customHeight="true" ht="20.1">
+      <c r="A6" s="41" t="inlineStr">
+        <is>
+          <t>产品信息</t>
+        </is>
+      </c>
+      <c r="B6" s="42" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="43" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D6" s="44" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E6" s="45" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F6" s="46" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G6" s="47" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H6" s="48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="7" customHeight="true" ht="30.0">
+      <c r="A7" s="49" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B7" s="50" t="inlineStr">
+        <is>
+          <t>产品名称</t>
+        </is>
+      </c>
+      <c r="C7" s="51" t="inlineStr">
+        <is>
+          <t>型号</t>
+        </is>
+      </c>
+      <c r="D7" s="52" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="E7" s="53" t="inlineStr">
+        <is>
+          <t>采购数量</t>
+        </is>
+      </c>
+      <c r="F7" s="54" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="G7" s="55" t="inlineStr">
+        <is>
+          <t>单价
+（CNY）</t>
+        </is>
+      </c>
+      <c r="H7" s="56" t="inlineStr">
+        <is>
+          <t>金额小计
+（CNY）</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" customHeight="true" ht="177.0">
+      <c r="A8" s="57" t="inlineStr">
+        <is>
+          <t>NO_1</t>
+        </is>
+      </c>
+      <c r="B8" s="58" t="inlineStr">
+        <is>
+          <t>ssssss111</t>
+        </is>
+      </c>
+      <c r="C8" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D8" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E8" s="61" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F8" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G8" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H8" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9" customHeight="true" ht="177.0">
+      <c r="A9" s="57" t="inlineStr">
+        <is>
+          <t>NO_2</t>
+        </is>
+      </c>
+      <c r="B9" s="58" t="inlineStr">
+        <is>
+          <t>ssssss222</t>
+        </is>
+      </c>
+      <c r="C9" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D9" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E9" s="61" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F9" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G9" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H9" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10" customHeight="true" ht="177.0">
+      <c r="A10" s="57" t="inlineStr">
+        <is>
+          <t>NO_3</t>
+        </is>
+      </c>
+      <c r="B10" s="58" t="inlineStr">
+        <is>
+          <t>ssssss333</t>
+        </is>
+      </c>
+      <c r="C10" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D10" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E10" s="61" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G10" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H10" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11" customHeight="true" ht="66.0">
+      <c r="A11" s="65" t="inlineStr">
+        <is>
+          <t>产品总金额:</t>
+        </is>
+      </c>
+      <c r="B11" s="66" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C11" s="67" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D11" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E11" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F11" s="70" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="G11" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H11" s="72" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12" customHeight="true" ht="66.0">
+      <c r="A12" s="73" t="inlineStr">
+        <is>
+          <t>附加费用:</t>
+        </is>
+      </c>
+      <c r="B12" s="74" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C12" s="75" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" s="76" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" s="77" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="78" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" s="79" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="80" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13" customHeight="true" ht="20.1">
+      <c r="A13" s="81" t="inlineStr">
+        <is>
+          <t>订单总金额:</t>
+        </is>
+      </c>
+      <c r="B13" s="82" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C13" s="83" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D13" s="84" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E13" s="85" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F13" s="86" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G13" s="87" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H13" s="88" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14" customHeight="true" ht="20.1">
+      <c r="A14" s="89" t="inlineStr">
+        <is>
+          <t>其他信息</t>
+        </is>
+      </c>
+      <c r="B14" s="90" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C14" s="91" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D14" s="92" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E14" s="93" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F14" s="94" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G14" s="95" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H14" s="96" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15" customHeight="true" ht="20.1">
+      <c r="A15" s="97" t="inlineStr">
+        <is>
+          <t>运输方式：</t>
+        </is>
+      </c>
+      <c r="B15" s="98" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="99" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D15" s="100" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E15" s="101" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F15" s="102" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G15" s="103" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H15" s="104" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16" customHeight="true" ht="20.1">
+      <c r="A16" s="105" t="inlineStr">
+        <is>
+          <t>付款方式：</t>
+        </is>
+      </c>
+      <c r="B16" s="106" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C16" s="107" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D16" s="108" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E16" s="109" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F16" s="110" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G16" s="111" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H16" s="112" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17" customHeight="true" ht="20.1">
+      <c r="A17" s="113" t="inlineStr">
+        <is>
+          <t>交货期：</t>
+        </is>
+      </c>
+      <c r="B17" s="114" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C17" s="115" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D17" s="116" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E17" s="117" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F17" s="118" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G17" s="119" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H17" s="120" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18" customHeight="true" ht="20.1">
+      <c r="A18" s="121" t="inlineStr">
+        <is>
+          <t>买方签字：张三</t>
+        </is>
+      </c>
+      <c r="B18" s="122" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="123" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D18" s="124" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E18" s="125" t="inlineStr">
+        <is>
+          <t>卖方签字：李四</t>
+        </is>
+      </c>
+      <c r="F18" s="126" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G18" s="127" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H18" s="128" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19" customHeight="true" ht="20.1">
+      <c r="A19" s="129" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="130" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" s="131" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D19" s="132" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E19" s="133" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="134" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G19" s="135" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H19" s="136" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20" customHeight="true" ht="20.1">
+</row>
+    <row r="21" customHeight="true" ht="39.95">
+</row>
+    <row r="22" customHeight="true" ht="15.75">
+      <c r="A22" s="137" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" s="138" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C22" s="139" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D22" s="140" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E22" s="141" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F22" s="142" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G22" s="143" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H22" s="144" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="23" customHeight="true" ht="15.75">
+      <c r="A23" s="145" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B23" s="146" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" s="147" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D23" s="148" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E23" s="149" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F23" s="150" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G23" s="151" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H23" s="152" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="24" customHeight="true" ht="17.1">
+      <c r="A24" s="153" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B24" s="154" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C24" s="155" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D24" s="156" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E24" s="157" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F24" s="158" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G24" s="159" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H24" s="160" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="25" customHeight="true" ht="24.95">
+      <c r="A25" s="161" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B25" s="162" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C25" s="163" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D25" s="164" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E25" s="165" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="166" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" s="167" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H25" s="168" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="26" customHeight="true" ht="21.95">
+</row>
+    <row r="27" customHeight="true" ht="24.0">
+</row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="21">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:H19"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/my_test_temp/测试包含表格和列表数据的复杂导出.xlsx
+++ b/my_test_temp/测试包含表格和列表数据的复杂导出.xlsx
@@ -21,7 +21,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0;\-\$#,##0"/>
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="169">
+  <fonts count="137">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -412,6 +412,7 @@
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="10"/>
+      <main:color theme="1"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
@@ -909,208 +910,8 @@
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,6 +930,28 @@
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor theme="9" tint="0.6"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor indexed="49"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -1356,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
@@ -1526,28 +1349,28 @@
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="56" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="57" fillId="6" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="58" fillId="7" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="58" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="59" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="59" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="60" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="60" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="61" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="61" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="62" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="62" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="63" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="63" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="64" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="64" fillId="6" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="65" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
@@ -1765,102 +1588,6 @@
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="136" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="137" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="138" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="139" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="140" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="141" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="142" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="143" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="144" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="145" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="146" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="147" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="148" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="149" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="150" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="151" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="152" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="153" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="154" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="155" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="156" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="157" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="158" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="159" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="160" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="161" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="162" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="163" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="164" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="165" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="166" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="167" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="168" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -1918,7 +1645,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="true"/>
-    <col min="2" max="2" width="10.875" customWidth="true"/>
+    <col min="2" max="2" width="20.375" customWidth="true"/>
     <col min="3" max="3" width="14.875" customWidth="true"/>
     <col min="4" max="4" width="44.125" customWidth="true"/>
     <col min="5" max="5" width="16.875" customWidth="true"/>
@@ -2223,7 +1950,7 @@
         </is>
       </c>
     </row>
-    <row r="8" customHeight="true" ht="177.0">
+    <row r="8" customHeight="true" ht="66.0">
       <c r="A8" s="57" t="inlineStr">
         <is>
           <t>NO_1</t>
@@ -2265,7 +1992,7 @@
         </is>
       </c>
     </row>
-    <row r="9" customHeight="true" ht="177.0">
+    <row r="9" customHeight="true" ht="66.0">
       <c r="A9" s="57" t="inlineStr">
         <is>
           <t>NO_2</t>
@@ -2307,7 +2034,7 @@
         </is>
       </c>
     </row>
-    <row r="10" customHeight="true" ht="177.0">
+    <row r="10" customHeight="true" ht="66.0">
       <c r="A10" s="57" t="inlineStr">
         <is>
           <t>NO_3</t>
@@ -2727,182 +2454,6 @@
         </is>
       </c>
     </row>
-    <row r="20" customHeight="true" ht="20.1">
-</row>
-    <row r="21" customHeight="true" ht="39.95">
-</row>
-    <row r="22" customHeight="true" ht="15.75">
-      <c r="A22" s="137" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B22" s="138" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C22" s="139" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="140" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E22" s="141" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F22" s="142" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G22" s="143" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H22" s="144" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="23" customHeight="true" ht="15.75">
-      <c r="A23" s="145" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B23" s="146" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C23" s="147" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="148" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E23" s="149" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F23" s="150" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G23" s="151" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H23" s="152" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="24" customHeight="true" ht="17.1">
-      <c r="A24" s="153" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B24" s="154" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C24" s="155" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="156" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E24" s="157" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F24" s="158" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G24" s="159" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H24" s="160" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="25" customHeight="true" ht="24.95">
-      <c r="A25" s="161" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B25" s="162" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C25" s="163" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="164" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E25" s="165" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F25" s="166" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G25" s="167" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H25" s="168" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="26" customHeight="true" ht="21.95">
-</row>
-    <row r="27" customHeight="true" ht="24.0">
-</row>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="A1:H1"/>

--- a/my_test_temp/测试包含表格和列表数据的复杂导出.xlsx
+++ b/my_test_temp/测试包含表格和列表数据的复杂导出.xlsx
@@ -911,7 +911,7 @@
       <main:charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,22 +936,6 @@
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:patternFill patternType="solid">
-        <main:fgColor indexed="49"/>
-        <main:bgColor indexed="64"/>
-      </main:patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -1349,28 +1333,28 @@
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="56" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="57" fillId="6" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="58" fillId="7" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="58" fillId="4" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="59" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="59" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="60" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="60" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="61" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="61" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="62" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="62" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="63" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="63" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="64" fillId="6" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="64" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="65" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
@@ -1633,6 +1617,728 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2933700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1953,12 +2659,12 @@
     <row r="8" customHeight="true" ht="66.0">
       <c r="A8" s="57" t="inlineStr">
         <is>
-          <t>NO_1</t>
+          <t>NO_0</t>
         </is>
       </c>
       <c r="B8" s="58" t="inlineStr">
         <is>
-          <t>ssssss111</t>
+          <t>ssssss_0</t>
         </is>
       </c>
       <c r="C8" s="59" t="inlineStr">
@@ -1973,7 +2679,7 @@
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t/>
+          <t>10</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
@@ -1995,12 +2701,12 @@
     <row r="9" customHeight="true" ht="66.0">
       <c r="A9" s="57" t="inlineStr">
         <is>
-          <t>NO_2</t>
+          <t>NO_1</t>
         </is>
       </c>
       <c r="B9" s="58" t="inlineStr">
         <is>
-          <t>ssssss222</t>
+          <t>ssssss_1</t>
         </is>
       </c>
       <c r="C9" s="59" t="inlineStr">
@@ -2015,7 +2721,7 @@
       </c>
       <c r="E9" s="61" t="inlineStr">
         <is>
-          <t/>
+          <t>11</t>
         </is>
       </c>
       <c r="F9" s="62" t="inlineStr">
@@ -2037,12 +2743,12 @@
     <row r="10" customHeight="true" ht="66.0">
       <c r="A10" s="57" t="inlineStr">
         <is>
-          <t>NO_3</t>
+          <t>NO_2</t>
         </is>
       </c>
       <c r="B10" s="58" t="inlineStr">
         <is>
-          <t>ssssss333</t>
+          <t>ssssss_2</t>
         </is>
       </c>
       <c r="C10" s="59" t="inlineStr">
@@ -2057,7 +2763,7 @@
       </c>
       <c r="E10" s="61" t="inlineStr">
         <is>
-          <t/>
+          <t>12</t>
         </is>
       </c>
       <c r="F10" s="62" t="inlineStr">
@@ -2077,378 +2783,1092 @@
       </c>
     </row>
     <row r="11" customHeight="true" ht="66.0">
-      <c r="A11" s="65" t="inlineStr">
-        <is>
-          <t>产品总金额:</t>
-        </is>
-      </c>
-      <c r="B11" s="66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C11" s="67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="68" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E11" s="69" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F11" s="70" t="inlineStr">
-        <is>
-          <t>15.66</t>
-        </is>
-      </c>
-      <c r="G11" s="71" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H11" s="72" t="inlineStr">
+      <c r="A11" s="57" t="inlineStr">
+        <is>
+          <t>NO_3</t>
+        </is>
+      </c>
+      <c r="B11" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_3</t>
+        </is>
+      </c>
+      <c r="C11" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D11" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E11" s="61" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F11" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G11" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H11" s="64" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="12" customHeight="true" ht="66.0">
-      <c r="A12" s="73" t="inlineStr">
+      <c r="A12" s="57" t="inlineStr">
+        <is>
+          <t>NO_4</t>
+        </is>
+      </c>
+      <c r="B12" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_4</t>
+        </is>
+      </c>
+      <c r="C12" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" s="61" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F12" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13" customHeight="true" ht="66.0">
+      <c r="A13" s="57" t="inlineStr">
+        <is>
+          <t>NO_5</t>
+        </is>
+      </c>
+      <c r="B13" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_5</t>
+        </is>
+      </c>
+      <c r="C13" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D13" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E13" s="61" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G13" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H13" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14" customHeight="true" ht="66.0">
+      <c r="A14" s="57" t="inlineStr">
+        <is>
+          <t>NO_6</t>
+        </is>
+      </c>
+      <c r="B14" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_6</t>
+        </is>
+      </c>
+      <c r="C14" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D14" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E14" s="61" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F14" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G14" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H14" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15" customHeight="true" ht="66.0">
+      <c r="A15" s="57" t="inlineStr">
+        <is>
+          <t>NO_7</t>
+        </is>
+      </c>
+      <c r="B15" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_7</t>
+        </is>
+      </c>
+      <c r="C15" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D15" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E15" s="61" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F15" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G15" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H15" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16" customHeight="true" ht="66.0">
+      <c r="A16" s="57" t="inlineStr">
+        <is>
+          <t>NO_8</t>
+        </is>
+      </c>
+      <c r="B16" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_8</t>
+        </is>
+      </c>
+      <c r="C16" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D16" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E16" s="61" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F16" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G16" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H16" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17" customHeight="true" ht="66.0">
+      <c r="A17" s="57" t="inlineStr">
+        <is>
+          <t>NO_9</t>
+        </is>
+      </c>
+      <c r="B17" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_9</t>
+        </is>
+      </c>
+      <c r="C17" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D17" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E17" s="61" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F17" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G17" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H17" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18" customHeight="true" ht="66.0">
+      <c r="A18" s="57" t="inlineStr">
+        <is>
+          <t>NO_10</t>
+        </is>
+      </c>
+      <c r="B18" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_10</t>
+        </is>
+      </c>
+      <c r="C18" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D18" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E18" s="61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F18" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G18" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H18" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19" customHeight="true" ht="66.0">
+      <c r="A19" s="57" t="inlineStr">
+        <is>
+          <t>NO_11</t>
+        </is>
+      </c>
+      <c r="B19" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_11</t>
+        </is>
+      </c>
+      <c r="C19" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D19" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E19" s="61" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F19" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G19" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H19" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20" customHeight="true" ht="66.0">
+      <c r="A20" s="57" t="inlineStr">
+        <is>
+          <t>NO_12</t>
+        </is>
+      </c>
+      <c r="B20" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_12</t>
+        </is>
+      </c>
+      <c r="C20" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D20" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E20" s="61" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F20" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G20" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H20" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="21" customHeight="true" ht="66.0">
+      <c r="A21" s="57" t="inlineStr">
+        <is>
+          <t>NO_13</t>
+        </is>
+      </c>
+      <c r="B21" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_13</t>
+        </is>
+      </c>
+      <c r="C21" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D21" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E21" s="61" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F21" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G21" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H21" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="22" customHeight="true" ht="66.0">
+      <c r="A22" s="57" t="inlineStr">
+        <is>
+          <t>NO_14</t>
+        </is>
+      </c>
+      <c r="B22" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_14</t>
+        </is>
+      </c>
+      <c r="C22" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D22" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E22" s="61" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F22" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G22" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H22" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="23" customHeight="true" ht="66.0">
+      <c r="A23" s="57" t="inlineStr">
+        <is>
+          <t>NO_15</t>
+        </is>
+      </c>
+      <c r="B23" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_15</t>
+        </is>
+      </c>
+      <c r="C23" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D23" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E23" s="61" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F23" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G23" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H23" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="24" customHeight="true" ht="66.0">
+      <c r="A24" s="57" t="inlineStr">
+        <is>
+          <t>NO_16</t>
+        </is>
+      </c>
+      <c r="B24" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_16</t>
+        </is>
+      </c>
+      <c r="C24" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D24" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E24" s="61" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F24" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G24" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H24" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="25" customHeight="true" ht="66.0">
+      <c r="A25" s="57" t="inlineStr">
+        <is>
+          <t>NO_17</t>
+        </is>
+      </c>
+      <c r="B25" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_17</t>
+        </is>
+      </c>
+      <c r="C25" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D25" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E25" s="61" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F25" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H25" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="26" customHeight="true" ht="66.0">
+      <c r="A26" s="57" t="inlineStr">
+        <is>
+          <t>NO_18</t>
+        </is>
+      </c>
+      <c r="B26" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_18</t>
+        </is>
+      </c>
+      <c r="C26" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D26" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E26" s="61" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F26" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G26" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H26" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="27" customHeight="true" ht="66.0">
+      <c r="A27" s="57" t="inlineStr">
+        <is>
+          <t>NO_19</t>
+        </is>
+      </c>
+      <c r="B27" s="58" t="inlineStr">
+        <is>
+          <t>ssssss_19</t>
+        </is>
+      </c>
+      <c r="C27" s="59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D27" s="60" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E27" s="61" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F27" s="62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G27" s="63" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H27" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="28" customHeight="true" ht="66.0">
+      <c r="A28" s="65" t="inlineStr">
+        <is>
+          <t>产品总金额:</t>
+        </is>
+      </c>
+      <c r="B28" s="66" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C28" s="67" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D28" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E28" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F28" s="70" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="G28" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H28" s="72" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="29" customHeight="true" ht="66.0">
+      <c r="A29" s="73" t="inlineStr">
         <is>
           <t>附加费用:</t>
         </is>
       </c>
-      <c r="B12" s="74" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C12" s="75" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="76" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E12" s="77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F12" s="78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G12" s="79" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H12" s="80" t="inlineStr">
+      <c r="B29" s="74" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C29" s="75" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D29" s="76" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E29" s="77" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F29" s="78" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G29" s="79" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H29" s="80" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="13" customHeight="true" ht="20.1">
-      <c r="A13" s="81" t="inlineStr">
+    <row r="30" customHeight="true" ht="20.1">
+      <c r="A30" s="81" t="inlineStr">
         <is>
           <t>订单总金额:</t>
         </is>
       </c>
-      <c r="B13" s="82" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C13" s="83" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="84" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E13" s="85" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F13" s="86" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G13" s="87" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H13" s="88" t="inlineStr">
+      <c r="B30" s="82" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C30" s="83" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D30" s="84" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E30" s="85" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F30" s="86" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G30" s="87" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H30" s="88" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="14" customHeight="true" ht="20.1">
-      <c r="A14" s="89" t="inlineStr">
+    <row r="31" customHeight="true" ht="20.1">
+      <c r="A31" s="89" t="inlineStr">
         <is>
           <t>其他信息</t>
         </is>
       </c>
-      <c r="B14" s="90" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C14" s="91" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="92" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E14" s="93" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F14" s="94" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G14" s="95" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H14" s="96" t="inlineStr">
+      <c r="B31" s="90" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" s="91" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D31" s="92" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E31" s="93" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F31" s="94" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G31" s="95" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H31" s="96" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="15" customHeight="true" ht="20.1">
-      <c r="A15" s="97" t="inlineStr">
+    <row r="32" customHeight="true" ht="20.1">
+      <c r="A32" s="97" t="inlineStr">
         <is>
           <t>运输方式：</t>
         </is>
       </c>
-      <c r="B15" s="98" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C15" s="99" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="100" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E15" s="101" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="102" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G15" s="103" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H15" s="104" t="inlineStr">
+      <c r="B32" s="98" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C32" s="99" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D32" s="100" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E32" s="101" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F32" s="102" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G32" s="103" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H32" s="104" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="16" customHeight="true" ht="20.1">
-      <c r="A16" s="105" t="inlineStr">
+    <row r="33" customHeight="true" ht="20.1">
+      <c r="A33" s="105" t="inlineStr">
         <is>
           <t>付款方式：</t>
         </is>
       </c>
-      <c r="B16" s="106" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C16" s="107" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="108" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E16" s="109" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F16" s="110" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G16" s="111" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H16" s="112" t="inlineStr">
+      <c r="B33" s="106" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C33" s="107" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D33" s="108" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E33" s="109" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F33" s="110" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G33" s="111" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H33" s="112" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="17" customHeight="true" ht="20.1">
-      <c r="A17" s="113" t="inlineStr">
+    <row r="34" customHeight="true" ht="20.1">
+      <c r="A34" s="113" t="inlineStr">
         <is>
           <t>交货期：</t>
         </is>
       </c>
-      <c r="B17" s="114" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C17" s="115" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="116" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E17" s="117" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F17" s="118" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G17" s="119" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H17" s="120" t="inlineStr">
+      <c r="B34" s="114" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C34" s="115" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D34" s="116" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E34" s="117" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F34" s="118" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G34" s="119" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H34" s="120" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="18" customHeight="true" ht="20.1">
-      <c r="A18" s="121" t="inlineStr">
+    <row r="35" customHeight="true" ht="20.1">
+      <c r="A35" s="121" t="inlineStr">
         <is>
           <t>买方签字：张三</t>
         </is>
       </c>
-      <c r="B18" s="122" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C18" s="123" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="124" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E18" s="125" t="inlineStr">
+      <c r="B35" s="122" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C35" s="123" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D35" s="124" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E35" s="125" t="inlineStr">
         <is>
           <t>卖方签字：李四</t>
         </is>
       </c>
-      <c r="F18" s="126" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G18" s="127" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H18" s="128" t="inlineStr">
+      <c r="F35" s="126" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G35" s="127" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H35" s="128" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="19" customHeight="true" ht="20.1">
-      <c r="A19" s="129" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B19" s="130" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C19" s="131" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="132" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E19" s="133" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F19" s="134" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G19" s="135" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H19" s="136" t="inlineStr">
+    <row r="36" customHeight="true" ht="20.1">
+      <c r="A36" s="129" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B36" s="130" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C36" s="131" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D36" s="132" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E36" s="133" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F36" s="134" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G36" s="135" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H36" s="136" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2465,18 +3885,18 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="E35:H36"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/my_test_temp/测试包含表格和列表数据的复杂导出.xlsx
+++ b/my_test_temp/测试包含表格和列表数据的复杂导出.xlsx
@@ -2355,798 +2355,378 @@
       </c>
     </row>
     <row r="18" customHeight="true" ht="66.0">
-      <c r="A18" s="57" t="inlineStr">
-        <is>
-          <t>NO_10</t>
-        </is>
-      </c>
-      <c r="B18" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_10</t>
-        </is>
-      </c>
-      <c r="C18" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E18" s="61" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F18" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G18" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H18" s="64" t="inlineStr">
+      <c r="A18" s="65" t="inlineStr">
+        <is>
+          <t>产品总金额:</t>
+        </is>
+      </c>
+      <c r="B18" s="66" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="67" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D18" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E18" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" s="70" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="G18" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H18" s="72" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="19" customHeight="true" ht="66.0">
-      <c r="A19" s="57" t="inlineStr">
-        <is>
-          <t>NO_11</t>
-        </is>
-      </c>
-      <c r="B19" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_11</t>
-        </is>
-      </c>
-      <c r="C19" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E19" s="61" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="F19" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G19" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H19" s="64" t="inlineStr">
+      <c r="A19" s="73" t="inlineStr">
+        <is>
+          <t>附加费用:</t>
+        </is>
+      </c>
+      <c r="B19" s="74" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" s="75" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D19" s="76" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E19" s="77" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="78" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G19" s="79" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H19" s="80" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="20" customHeight="true" ht="66.0">
-      <c r="A20" s="57" t="inlineStr">
-        <is>
-          <t>NO_12</t>
-        </is>
-      </c>
-      <c r="B20" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_12</t>
-        </is>
-      </c>
-      <c r="C20" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E20" s="61" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="F20" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G20" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H20" s="64" t="inlineStr">
+    <row r="20" customHeight="true" ht="20.1">
+      <c r="A20" s="81" t="inlineStr">
+        <is>
+          <t>订单总金额:</t>
+        </is>
+      </c>
+      <c r="B20" s="82" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="83" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D20" s="84" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E20" s="85" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" s="86" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G20" s="87" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H20" s="88" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="21" customHeight="true" ht="66.0">
-      <c r="A21" s="57" t="inlineStr">
-        <is>
-          <t>NO_13</t>
-        </is>
-      </c>
-      <c r="B21" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_13</t>
-        </is>
-      </c>
-      <c r="C21" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E21" s="61" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F21" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G21" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H21" s="64" t="inlineStr">
+    <row r="21" customHeight="true" ht="20.1">
+      <c r="A21" s="89" t="inlineStr">
+        <is>
+          <t>其他信息</t>
+        </is>
+      </c>
+      <c r="B21" s="90" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C21" s="91" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D21" s="92" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E21" s="93" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F21" s="94" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G21" s="95" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H21" s="96" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="22" customHeight="true" ht="66.0">
-      <c r="A22" s="57" t="inlineStr">
-        <is>
-          <t>NO_14</t>
-        </is>
-      </c>
-      <c r="B22" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_14</t>
-        </is>
-      </c>
-      <c r="C22" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E22" s="61" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F22" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G22" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H22" s="64" t="inlineStr">
+    <row r="22" customHeight="true" ht="20.1">
+      <c r="A22" s="97" t="inlineStr">
+        <is>
+          <t>运输方式：</t>
+        </is>
+      </c>
+      <c r="B22" s="98" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C22" s="99" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D22" s="100" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E22" s="101" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F22" s="102" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G22" s="103" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H22" s="104" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="23" customHeight="true" ht="66.0">
-      <c r="A23" s="57" t="inlineStr">
-        <is>
-          <t>NO_15</t>
-        </is>
-      </c>
-      <c r="B23" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_15</t>
-        </is>
-      </c>
-      <c r="C23" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E23" s="61" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F23" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G23" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H23" s="64" t="inlineStr">
+    <row r="23" customHeight="true" ht="20.1">
+      <c r="A23" s="105" t="inlineStr">
+        <is>
+          <t>付款方式：</t>
+        </is>
+      </c>
+      <c r="B23" s="106" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" s="107" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D23" s="108" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E23" s="109" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F23" s="110" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G23" s="111" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H23" s="112" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="24" customHeight="true" ht="66.0">
-      <c r="A24" s="57" t="inlineStr">
-        <is>
-          <t>NO_16</t>
-        </is>
-      </c>
-      <c r="B24" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_16</t>
-        </is>
-      </c>
-      <c r="C24" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E24" s="61" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="F24" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G24" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H24" s="64" t="inlineStr">
+    <row r="24" customHeight="true" ht="20.1">
+      <c r="A24" s="113" t="inlineStr">
+        <is>
+          <t>交货期：</t>
+        </is>
+      </c>
+      <c r="B24" s="114" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C24" s="115" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D24" s="116" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E24" s="117" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F24" s="118" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G24" s="119" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H24" s="120" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="25" customHeight="true" ht="66.0">
-      <c r="A25" s="57" t="inlineStr">
-        <is>
-          <t>NO_17</t>
-        </is>
-      </c>
-      <c r="B25" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_17</t>
-        </is>
-      </c>
-      <c r="C25" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E25" s="61" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="F25" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G25" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H25" s="64" t="inlineStr">
+    <row r="25" customHeight="true" ht="20.1">
+      <c r="A25" s="121" t="inlineStr">
+        <is>
+          <t>买方签字：张三</t>
+        </is>
+      </c>
+      <c r="B25" s="122" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C25" s="123" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D25" s="124" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E25" s="125" t="inlineStr">
+        <is>
+          <t>卖方签字：李四</t>
+        </is>
+      </c>
+      <c r="F25" s="126" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" s="127" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H25" s="128" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="26" customHeight="true" ht="66.0">
-      <c r="A26" s="57" t="inlineStr">
-        <is>
-          <t>NO_18</t>
-        </is>
-      </c>
-      <c r="B26" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_18</t>
-        </is>
-      </c>
-      <c r="C26" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E26" s="61" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F26" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G26" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H26" s="64" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="27" customHeight="true" ht="66.0">
-      <c r="A27" s="57" t="inlineStr">
-        <is>
-          <t>NO_19</t>
-        </is>
-      </c>
-      <c r="B27" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_19</t>
-        </is>
-      </c>
-      <c r="C27" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E27" s="61" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="F27" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G27" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H27" s="64" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="28" customHeight="true" ht="66.0">
-      <c r="A28" s="65" t="inlineStr">
-        <is>
-          <t>产品总金额:</t>
-        </is>
-      </c>
-      <c r="B28" s="66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C28" s="67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="68" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E28" s="69" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F28" s="70" t="inlineStr">
-        <is>
-          <t>15.66</t>
-        </is>
-      </c>
-      <c r="G28" s="71" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H28" s="72" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="29" customHeight="true" ht="66.0">
-      <c r="A29" s="73" t="inlineStr">
-        <is>
-          <t>附加费用:</t>
-        </is>
-      </c>
-      <c r="B29" s="74" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C29" s="75" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="76" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E29" s="77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F29" s="78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G29" s="79" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H29" s="80" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="30" customHeight="true" ht="20.1">
-      <c r="A30" s="81" t="inlineStr">
-        <is>
-          <t>订单总金额:</t>
-        </is>
-      </c>
-      <c r="B30" s="82" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C30" s="83" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="84" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E30" s="85" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F30" s="86" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G30" s="87" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H30" s="88" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="31" customHeight="true" ht="20.1">
-      <c r="A31" s="89" t="inlineStr">
-        <is>
-          <t>其他信息</t>
-        </is>
-      </c>
-      <c r="B31" s="90" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C31" s="91" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="92" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E31" s="93" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F31" s="94" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G31" s="95" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H31" s="96" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="32" customHeight="true" ht="20.1">
-      <c r="A32" s="97" t="inlineStr">
-        <is>
-          <t>运输方式：</t>
-        </is>
-      </c>
-      <c r="B32" s="98" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C32" s="99" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="100" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E32" s="101" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F32" s="102" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G32" s="103" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H32" s="104" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="33" customHeight="true" ht="20.1">
-      <c r="A33" s="105" t="inlineStr">
-        <is>
-          <t>付款方式：</t>
-        </is>
-      </c>
-      <c r="B33" s="106" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C33" s="107" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="108" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E33" s="109" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F33" s="110" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G33" s="111" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H33" s="112" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="34" customHeight="true" ht="20.1">
-      <c r="A34" s="113" t="inlineStr">
-        <is>
-          <t>交货期：</t>
-        </is>
-      </c>
-      <c r="B34" s="114" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C34" s="115" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="116" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E34" s="117" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F34" s="118" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G34" s="119" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H34" s="120" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="35" customHeight="true" ht="20.1">
-      <c r="A35" s="121" t="inlineStr">
-        <is>
-          <t>买方签字：张三</t>
-        </is>
-      </c>
-      <c r="B35" s="122" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C35" s="123" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="124" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E35" s="125" t="inlineStr">
-        <is>
-          <t>卖方签字：李四</t>
-        </is>
-      </c>
-      <c r="F35" s="126" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G35" s="127" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H35" s="128" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="36" customHeight="true" ht="20.1">
-      <c r="A36" s="129" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B36" s="130" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C36" s="131" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="132" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E36" s="133" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F36" s="134" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G36" s="135" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H36" s="136" t="inlineStr">
+    <row r="26" customHeight="true" ht="20.1">
+      <c r="A26" s="129" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B26" s="130" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C26" s="131" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D26" s="132" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E26" s="133" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F26" s="134" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G26" s="135" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H26" s="136" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3163,18 +2743,18 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="E25:H26"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/my_test_temp/测试包含表格和列表数据的复杂导出.xlsx
+++ b/my_test_temp/测试包含表格和列表数据的复杂导出.xlsx
@@ -21,7 +21,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0;\-\$#,##0"/>
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="137">
+  <fonts count="153">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -413,27 +413,112 @@
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="10"/>
       <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
+      <main:name val="Microsoft YaHei UI"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="Microsoft YaHei UI"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Microsoft YaHei UI"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="Microsoft YaHei UI"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Microsoft YaHei UI"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="Microsoft YaHei UI"/>
       <main:charset val="134"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -920,7 +1005,7 @@
     </fill>
     <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
-        <main:fgColor theme="0" tint="-0.25"/>
+        <main:fgColor theme="0" tint="-0.249977111117893"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
@@ -932,7 +1017,7 @@
     </fill>
     <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
-        <main:fgColor theme="9" tint="0.6"/>
+        <main:fgColor theme="9" tint="0.599993896298105"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
@@ -1163,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
@@ -1339,71 +1424,71 @@
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="58" fillId="4" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="59" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="59" fillId="4" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="60" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="61" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="62" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="63" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="63" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="64" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="65" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="66" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="67" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="68" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="69" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="70" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="71" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="72" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="73" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="74" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="75" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="76" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="77" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="78" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="79" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="80" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="center" vertical="center"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="66" fillId="4" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="67" fillId="4" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="68" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="69" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="70" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="71" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="72" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="73" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="74" fillId="4" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="75" fillId="4" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="76" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="77" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="78" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="79" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="80" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="81" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
@@ -1429,77 +1514,77 @@
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="88" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="89" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="89" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="90" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="91" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="92" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="93" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="94" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="95" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="96" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="97" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="98" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="99" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="100" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="101" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="102" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="103" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="104" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="105" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="90" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="106" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="91" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="107" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="92" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="108" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="93" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="109" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="94" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="110" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="95" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="111" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="96" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="112" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="97" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="98" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="99" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="100" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="101" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="102" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="103" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="104" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="105" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="106" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="107" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="108" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="109" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="110" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="111" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="112" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="113" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1525,52 +1610,100 @@
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="120" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="121" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="121" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="122" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="123" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="124" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="125" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="126" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="127" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="128" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="129" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="130" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="131" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="132" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="133" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="134" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="135" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="136" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="137" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="122" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="138" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="123" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="139" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="124" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="140" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="125" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="141" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="126" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="142" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="127" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="143" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="128" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="144" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="129" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="145" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="130" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="146" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="131" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="147" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="132" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="148" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="133" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="149" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="134" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="150" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="135" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="151" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="136" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="152" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1583,13 +1716,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1633,7 +1766,7 @@
     <col min="3" max="3" width="14.875" customWidth="true"/>
     <col min="4" max="4" width="44.125" customWidth="true"/>
     <col min="5" max="5" width="16.875" customWidth="true"/>
-    <col min="6" max="6" width="9.625" customWidth="true"/>
+    <col min="6" max="6" width="14.625" customWidth="true"/>
     <col min="7" max="7" width="8.875" customWidth="true"/>
     <col min="8" max="8" width="12.875" customWidth="true"/>
   </cols>
@@ -1937,27 +2070,27 @@
     <row r="8" customHeight="true" ht="66.0">
       <c r="A8" s="57" t="inlineStr">
         <is>
-          <t>NO_0</t>
+          <t>序号</t>
         </is>
       </c>
       <c r="B8" s="58" t="inlineStr">
         <is>
-          <t>ssssss_0</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="C8" s="59" t="inlineStr">
         <is>
-          <t/>
+          <t>ddddcccc</t>
         </is>
       </c>
       <c r="D8" s="60" t="inlineStr">
         <is>
-          <t/>
+          <t>进口海鲜</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t/>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
@@ -1977,397 +2110,307 @@
       </c>
     </row>
     <row r="9" customHeight="true" ht="66.0">
-      <c r="A9" s="57" t="inlineStr">
-        <is>
-          <t>NO_1</t>
-        </is>
-      </c>
-      <c r="B9" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_1</t>
-        </is>
-      </c>
-      <c r="C9" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E9" s="61" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F9" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G9" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H9" s="64" t="inlineStr">
+      <c r="A9" s="31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="25" t="inlineStr">
+        <is>
+          <t>产品名称左边栏测试</t>
+        </is>
+      </c>
+      <c r="C9" s="67" t="inlineStr">
+        <is>
+          <t>ssssss_0</t>
+        </is>
+      </c>
+      <c r="D9" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E9" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F9" s="70" t="inlineStr">
+        <is>
+          <t>哈哈测试</t>
+        </is>
+      </c>
+      <c r="G9" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H9" s="72" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="10" customHeight="true" ht="66.0">
-      <c r="A10" s="57" t="inlineStr">
-        <is>
-          <t>NO_2</t>
-        </is>
-      </c>
-      <c r="B10" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_2</t>
-        </is>
-      </c>
-      <c r="C10" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E10" s="61" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F10" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G10" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H10" s="64" t="inlineStr">
+      <c r="C10" s="67" t="inlineStr">
+        <is>
+          <t>ssssss_1</t>
+        </is>
+      </c>
+      <c r="D10" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E10" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="70" t="inlineStr">
+        <is>
+          <t>哈哈测试</t>
+        </is>
+      </c>
+      <c r="G10" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H10" s="72" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="11" customHeight="true" ht="66.0">
-      <c r="A11" s="57" t="inlineStr">
-        <is>
-          <t>NO_3</t>
-        </is>
-      </c>
-      <c r="B11" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_3</t>
-        </is>
-      </c>
-      <c r="C11" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E11" s="61" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="F11" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G11" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H11" s="64" t="inlineStr">
+      <c r="C11" s="67" t="inlineStr">
+        <is>
+          <t>ssssss_2</t>
+        </is>
+      </c>
+      <c r="D11" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E11" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F11" s="70" t="inlineStr">
+        <is>
+          <t>哈哈测试</t>
+        </is>
+      </c>
+      <c r="G11" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H11" s="72" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="12" customHeight="true" ht="66.0">
-      <c r="A12" s="57" t="inlineStr">
-        <is>
-          <t>NO_4</t>
-        </is>
-      </c>
-      <c r="B12" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_4</t>
-        </is>
-      </c>
-      <c r="C12" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E12" s="61" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F12" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G12" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H12" s="64" t="inlineStr">
+      <c r="C12" s="67" t="inlineStr">
+        <is>
+          <t>ssssss_3</t>
+        </is>
+      </c>
+      <c r="D12" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="70" t="inlineStr">
+        <is>
+          <t>哈哈测试</t>
+        </is>
+      </c>
+      <c r="G12" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="72" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="13" customHeight="true" ht="66.0">
-      <c r="A13" s="57" t="inlineStr">
-        <is>
-          <t>NO_5</t>
-        </is>
-      </c>
-      <c r="B13" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_5</t>
-        </is>
-      </c>
-      <c r="C13" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E13" s="61" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F13" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G13" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H13" s="64" t="inlineStr">
+      <c r="C13" s="67" t="inlineStr">
+        <is>
+          <t>ssssss_4</t>
+        </is>
+      </c>
+      <c r="D13" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E13" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F13" s="70" t="inlineStr">
+        <is>
+          <t>哈哈测试</t>
+        </is>
+      </c>
+      <c r="G13" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H13" s="72" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="14" customHeight="true" ht="66.0">
-      <c r="A14" s="57" t="inlineStr">
-        <is>
-          <t>NO_6</t>
-        </is>
-      </c>
-      <c r="B14" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_6</t>
-        </is>
-      </c>
-      <c r="C14" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E14" s="61" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="F14" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G14" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H14" s="64" t="inlineStr">
+      <c r="C14" s="67" t="inlineStr">
+        <is>
+          <t>ssssss_5</t>
+        </is>
+      </c>
+      <c r="D14" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E14" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F14" s="70" t="inlineStr">
+        <is>
+          <t>哈哈测试</t>
+        </is>
+      </c>
+      <c r="G14" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H14" s="72" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="15" customHeight="true" ht="66.0">
-      <c r="A15" s="57" t="inlineStr">
-        <is>
-          <t>NO_7</t>
-        </is>
-      </c>
-      <c r="B15" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_7</t>
-        </is>
-      </c>
-      <c r="C15" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E15" s="61" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F15" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G15" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H15" s="64" t="inlineStr">
+      <c r="C15" s="67" t="inlineStr">
+        <is>
+          <t>ssssss_6</t>
+        </is>
+      </c>
+      <c r="D15" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E15" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F15" s="70" t="inlineStr">
+        <is>
+          <t>哈哈测试</t>
+        </is>
+      </c>
+      <c r="G15" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H15" s="72" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="16" customHeight="true" ht="66.0">
-      <c r="A16" s="57" t="inlineStr">
-        <is>
-          <t>NO_8</t>
-        </is>
-      </c>
-      <c r="B16" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_8</t>
-        </is>
-      </c>
-      <c r="C16" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E16" s="61" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="F16" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G16" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H16" s="64" t="inlineStr">
+      <c r="C16" s="67" t="inlineStr">
+        <is>
+          <t>ssssss_7</t>
+        </is>
+      </c>
+      <c r="D16" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E16" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F16" s="70" t="inlineStr">
+        <is>
+          <t>哈哈测试</t>
+        </is>
+      </c>
+      <c r="G16" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H16" s="72" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="17" customHeight="true" ht="66.0">
-      <c r="A17" s="57" t="inlineStr">
-        <is>
-          <t>NO_9</t>
-        </is>
-      </c>
-      <c r="B17" s="58" t="inlineStr">
-        <is>
-          <t>ssssss_9</t>
-        </is>
-      </c>
-      <c r="C17" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E17" s="61" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F17" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G17" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H17" s="64" t="inlineStr">
+      <c r="C17" s="67" t="inlineStr">
+        <is>
+          <t>ssssss_8</t>
+        </is>
+      </c>
+      <c r="D17" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E17" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F17" s="70" t="inlineStr">
+        <is>
+          <t>哈哈测试</t>
+        </is>
+      </c>
+      <c r="G17" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H17" s="72" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="18" customHeight="true" ht="66.0">
-      <c r="A18" s="65" t="inlineStr">
-        <is>
-          <t>产品总金额:</t>
-        </is>
-      </c>
-      <c r="B18" s="66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C18" s="67" t="inlineStr">
         <is>
-          <t/>
+          <t>ssssss_9</t>
         </is>
       </c>
       <c r="D18" s="68" t="inlineStr">
@@ -2382,7 +2425,7 @@
       </c>
       <c r="F18" s="70" t="inlineStr">
         <is>
-          <t>15.66</t>
+          <t>哈哈测试</t>
         </is>
       </c>
       <c r="G18" s="71" t="inlineStr">
@@ -2399,91 +2442,91 @@
     <row r="19" customHeight="true" ht="66.0">
       <c r="A19" s="73" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="74" t="inlineStr">
+        <is>
+          <t>左边栏测试测试</t>
+        </is>
+      </c>
+      <c r="C19" s="75" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D19" s="76" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E19" s="77" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="78" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G19" s="79" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H19" s="80" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20" customHeight="true" ht="66.0">
+      <c r="A20" s="81" t="inlineStr">
+        <is>
+          <t>产品总金额:</t>
+        </is>
+      </c>
+      <c r="B20" s="82" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="83" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D20" s="84" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E20" s="85" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" s="86" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="G20" s="87" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H20" s="88" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="21" customHeight="true" ht="66.0">
+      <c r="A21" s="89" t="inlineStr">
+        <is>
           <t>附加费用:</t>
-        </is>
-      </c>
-      <c r="B19" s="74" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C19" s="75" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="76" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E19" s="77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F19" s="78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G19" s="79" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H19" s="80" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="20" customHeight="true" ht="20.1">
-      <c r="A20" s="81" t="inlineStr">
-        <is>
-          <t>订单总金额:</t>
-        </is>
-      </c>
-      <c r="B20" s="82" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C20" s="83" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="84" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E20" s="85" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F20" s="86" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G20" s="87" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H20" s="88" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="21" customHeight="true" ht="20.1">
-      <c r="A21" s="89" t="inlineStr">
-        <is>
-          <t>其他信息</t>
         </is>
       </c>
       <c r="B21" s="90" t="inlineStr">
@@ -2525,7 +2568,7 @@
     <row r="22" customHeight="true" ht="20.1">
       <c r="A22" s="97" t="inlineStr">
         <is>
-          <t>运输方式：</t>
+          <t>订单总金额:</t>
         </is>
       </c>
       <c r="B22" s="98" t="inlineStr">
@@ -2567,7 +2610,7 @@
     <row r="23" customHeight="true" ht="20.1">
       <c r="A23" s="105" t="inlineStr">
         <is>
-          <t>付款方式：</t>
+          <t>其他信息</t>
         </is>
       </c>
       <c r="B23" s="106" t="inlineStr">
@@ -2609,7 +2652,7 @@
     <row r="24" customHeight="true" ht="20.1">
       <c r="A24" s="113" t="inlineStr">
         <is>
-          <t>交货期：</t>
+          <t>运输方式：</t>
         </is>
       </c>
       <c r="B24" s="114" t="inlineStr">
@@ -2651,7 +2694,7 @@
     <row r="25" customHeight="true" ht="20.1">
       <c r="A25" s="121" t="inlineStr">
         <is>
-          <t>买方签字：张三</t>
+          <t>付款方式：</t>
         </is>
       </c>
       <c r="B25" s="122" t="inlineStr">
@@ -2671,7 +2714,7 @@
       </c>
       <c r="E25" s="125" t="inlineStr">
         <is>
-          <t>卖方签字：李四</t>
+          <t/>
         </is>
       </c>
       <c r="F25" s="126" t="inlineStr">
@@ -2693,7 +2736,7 @@
     <row r="26" customHeight="true" ht="20.1">
       <c r="A26" s="129" t="inlineStr">
         <is>
-          <t/>
+          <t>交货期：</t>
         </is>
       </c>
       <c r="B26" s="130" t="inlineStr">
@@ -2727,6 +2770,90 @@
         </is>
       </c>
       <c r="H26" s="136" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="27" customHeight="true" ht="20.1">
+      <c r="A27" s="137" t="inlineStr">
+        <is>
+          <t>买方签字：张三</t>
+        </is>
+      </c>
+      <c r="B27" s="138" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C27" s="139" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D27" s="140" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E27" s="141" t="inlineStr">
+        <is>
+          <t>卖方签字：李四</t>
+        </is>
+      </c>
+      <c r="F27" s="142" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G27" s="143" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H27" s="144" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="28" customHeight="true" ht="20.1">
+      <c r="A28" s="145" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B28" s="146" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C28" s="147" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D28" s="148" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E28" s="149" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F28" s="150" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G28" s="151" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H28" s="152" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2743,18 +2870,18 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:H19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="E25:H26"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="E27:H28"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
